--- a/table/emp_tbl.xlsx
+++ b/table/emp_tbl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
   <si>
     <t>서민환</t>
   </si>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,18 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +515,25 @@
   </si>
   <si>
     <t>051-728-6874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empdeptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empgrade</t>
+  </si>
+  <si>
+    <t>empname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emppwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,1913 +883,1918 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="7" max="7" width="70.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2002</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2000</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2004</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2008</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2008</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2020</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>2024</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2035</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2035</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2005</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2005</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>2009</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>2021</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2025</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2036</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>2036</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>2003</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2007</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>2007</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2019</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>2019</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2023</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>2023</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2010</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>2010</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2011</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2011</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2012</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>2012</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2026</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>2026</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2027</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>2027</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2028</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>2028</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2037</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>2037</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2038</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>2038</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2039</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>2039</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2006</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>2006</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2013</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>2013</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>2014</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2022</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>2022</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2029</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>2029</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2030</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>2030</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2040</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>2040</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2041</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>2041</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2046</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>2046</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2047</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>2047</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2015</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>2015</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2016</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>2016</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2017</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>2017</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2018</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>2018</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2031</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>2031</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2032</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>2032</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2033</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>2033</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2034</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>2034</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2042</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>2042</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2043</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>2043</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2044</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>2044</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2045</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>2045</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2048</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>2048</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G51" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G52" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G53" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G54" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G55" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G56" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G57" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G58" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G59" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G60" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G61" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G62" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G63" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G64" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G65" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G66" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G67" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G68" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G69" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G70" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G71" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G72" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G73" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G74" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G75" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G76" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G77" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G78" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G79" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G80" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G81" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G82" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G83" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G84" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G85" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G86" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G88" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G89" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G90" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G91" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G92" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G93" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G94" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G95" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G96" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G97" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G98" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G99" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G100" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G101" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G102" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G103" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G104" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G105" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G106" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G107" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G108" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G109" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G110" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G111" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G112" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G113" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G114" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G115" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G116" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G117" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G118" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G119" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G120" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H222" s="1"/>
-    </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H246" s="1"/>
-    </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H250" s="1"/>
-    </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H251" s="1"/>
-    </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H252" s="1"/>
-    </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H254" s="1"/>
-    </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H255" s="1"/>
-    </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H256" s="1"/>
-    </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H257" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I257" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H257">
-    <sortCondition ref="C2:C257" customList="관리자,대표,이사,차장,처장,부장,과장,대리,사원"/>
+  <sortState ref="A2:I257">
+    <sortCondition ref="D2:D257" customList="관리자,대표,이사,차장,처장,부장,과장,대리,사원"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
